--- a/parameters recording.xlsx
+++ b/parameters recording.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="5904" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>CNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +198,14 @@
   </si>
   <si>
     <t>using word2vec_self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new data with 64 dimention wordvector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">new data with 128 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -785,7 +793,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1</v>
       </c>
@@ -802,7 +810,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>1</v>
       </c>
@@ -819,7 +827,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>1</v>
       </c>
@@ -848,7 +856,7 @@
         <v>75.3</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>1</v>
       </c>
@@ -865,7 +873,7 @@
         <v>75.8</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>1</v>
       </c>
@@ -887,8 +895,20 @@
       <c r="J21">
         <v>77.8</v>
       </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>45</v>
+      </c>
+      <c r="P21">
+        <v>84</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>46</v>
+      </c>
+      <c r="S21">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.8</v>
       </c>
@@ -905,7 +925,7 @@
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>1</v>
       </c>
@@ -928,7 +948,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>1</v>
       </c>
@@ -945,7 +965,7 @@
         <v>75.3</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>1</v>
       </c>
@@ -968,7 +988,7 @@
         <v>57.2</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>1</v>
       </c>
@@ -991,7 +1011,7 @@
         <v>77.7</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.8</v>
       </c>
@@ -1008,7 +1028,7 @@
         <v>75.900000000000006</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>1</v>
       </c>
@@ -1025,7 +1045,7 @@
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>1</v>
       </c>
@@ -1042,7 +1062,7 @@
         <v>75.7</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>1</v>
       </c>
@@ -1059,7 +1079,7 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>1</v>
       </c>
@@ -1076,7 +1096,7 @@
         <v>74.8</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1</v>
       </c>
